--- a/biology/Botanique/Villa_Fabbricotti_(Florence)/Villa_Fabbricotti_(Florence).xlsx
+++ b/biology/Botanique/Villa_Fabbricotti_(Florence)/Villa_Fabbricotti_(Florence).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Villa Fabbricotti, ou Arcipressi, est située Via Vittorio Emanuele II, dans le quartier Montughi, à Florence dont le parc jouxte celui du musée Stibbert dont l'entrée se trouve dans la via Stibbert.
 </t>
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIVe siècle, la villa appartenait à Buoninsegni, au XVIe siècle à Girolamo di Zanobi Del Maestro Luca et ensuite, pendant plus de trois siècles, jusqu'à la troisième décennie du XIXe siècle, elle devint un pavillon de chasse d'une branche de la famille Strozzi que l'on appela Strozzino (« l'usurier »). Les Strozzi l'agrémentèrent d'un grand jardin, mais son aspect actuel est dû à Giuseppe Fabbricotti, qui l'acheta en 1864 et qui chargea la même année les architectes Vincenzo Micheli et Antonio Cipolla de transformer cet ancien pavillon en une luxueuse résidence.
 Il ne reste aucune documentation connue jusqu'à présent qui indique le nom de l'auteur du jardin, mais il faut probablement attribuer à Giuseppe Poggi l'idée du projet du parc Fabbricotti, qui fut ensuite créé sous la direction de Vincenzo Micheli lorsqu'il était chargé de la construction de la villa.
 La Villa Fabbricotti et son parc ont connu des moments de gloire, notamment pour avoir accueilli des personnages illustres comme Elisa Baciocchi, grande-duchesse de Toscane et sœur de Napoléon Bonaparte et, en 1894, la reine Victoria d'Angleterre. En 1825, Pauline Bonaparte y mourut. La Villa Fabbricotti est également célèbre pour avoir accueilli une illustre famille florentine de la fin du XXe siècle, les Diana.
-L'État acheta la propriété en 1935 et l'attribua au GIL ; après la Seconde Guerre mondiale, après un long litige juridique, elle devient partie intégrante du patrimoine de l'Administration Régionale et a ainsi été cédée par cette dernière à la Commune de Florence. Elle appartient actuellement à la division communale du Quartiere 5, qui l'utilise comme siège de différents bureaux et associations culturelles. Le parc est ouvert au public gratuitement. C'est aussi le siège de l'Agenzia di Promozione Economica della Toscana, institution toscane chargée de la promotion et de l'internationalisation des Petites et Moyennes Entreprises, de l'Artisanat, de l'Agroalimentaire et du Tourisme. C'était également le siège du Centro di Cultura per Stranieri de l'Université de Florence. En 2016, la Région Toscane  a mis en vente la villa et son parc, ainsi que ses autres propriétés, événement très médiatisé en raison des réactions controversées qu'il a provoquées[1].
+L'État acheta la propriété en 1935 et l'attribua au GIL ; après la Seconde Guerre mondiale, après un long litige juridique, elle devient partie intégrante du patrimoine de l'Administration Régionale et a ainsi été cédée par cette dernière à la Commune de Florence. Elle appartient actuellement à la division communale du Quartiere 5, qui l'utilise comme siège de différents bureaux et associations culturelles. Le parc est ouvert au public gratuitement. C'est aussi le siège de l'Agenzia di Promozione Economica della Toscana, institution toscane chargée de la promotion et de l'internationalisation des Petites et Moyennes Entreprises, de l'Artisanat, de l'Agroalimentaire et du Tourisme. C'était également le siège du Centro di Cultura per Stranieri de l'Université de Florence. En 2016, la Région Toscane  a mis en vente la villa et son parc, ainsi que ses autres propriétés, événement très médiatisé en raison des réactions controversées qu'il a provoquées.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Le jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux éléments du parc recensés en 2003 sont :
 Exemplaires de plantes : 1. Washingtonia filifère ; 2. Pinus halepensis ; 3. Pinus pinéa ; 4. Eriobotrya japonica ; 5. Quercus ilex ; 6. Cupressus sempervirens ; 7. Chamaerops humilis ; 8. Taxus baccata ; 9. Cedrus déodara ; dix. Aesculus x carnée ; 11. Thuya occidentalis ; 12. Cedrus atlantica ; 13. Aesculus hippocastanum ; 14. Trachycarpus fortunei ; 15. Quercus suber ; 16. Quercus robur ; 17. Gleditsia triacanthos ; 18. Calocèdre decurrens ; 19. Diospyros virginiana ; 20. Cercis siliquastrum ; 21. Tilia spp.
@@ -582,7 +598,9 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Compte tenu de la fonction originale de pavillon de chasse, il y avait et il reste encore des espaces forestiers propices à la chasse aux oiseaux. C'est l'un des parcs urbains les plus riches en oiseaux. Le troglodyte, le rouge-gorge, le torsadé , le merle, la paruline, la fauvette, le roitelet, la mésange charbonnière, la sittelle, le grimpereau, le moineau, le pinson, le verdier, le serin et le chardonneret sont signalés comme nidifiant régulièrement. De plus, des chouettes hulottes, des huppes, des pics verts et des pies-grièches s'y reproduisent. Parmi les mammifères, il y a les hérissons et les écureuils.
 Les masses boisées remplissent les portions délimitées par les virages de l'avenue, tandis qu'à proximité de la villa, le parc s'ouvre sur le paysage, mettant en valeur quelques exemplaires uniques. La superficie de la pelouse est limitée à la terrasse entourant la villa. Les bosquets sont principalement composés de chênes verts, de cyprès, de pins et de cèdres. On y trouve également des palmiers de différentes espèces, alors que l'ombre épaisse limite les espèces de sous-bois à de nombreuses plantes d'acanthes, de viorne tin et de lauriers.
@@ -614,7 +632,9 @@
           <t>L'arbre de la paix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand Cèdre du Liban de la Villa Fabbricotti, d'environ 24 mètres de haut, était situé sur la place à l'ouest de la villa et, selon certains experts, sa disposition (et donc son âge présumé d'environ 140 ans) remonte à l'époque où Florence était la capitale d'Italie. La plupart des arbres les plus anciens de Florence datent de cette époque et certains arbres se trouvent le long des avenues (par exemple Viale Gramsci).
 Au cours de ses 140 années de vie, certaines particularités curieuses s'étaient produites sur cet arbre, comme la soudure de deux branches ; un fait qui n'est pas inhabituel pour les spécimens de cette taille. Unique, encore, était une grande branche qui n'avait ni début ni fin, car elle partait d'une branche et atteignait une autre, agissant comme un pont entre les deux. Malgré les multiples interventions de protection, de soins et d'entretien, le grand cèdre s'est asséché en 2001 et il ne reste que le tronc et quelques-unes des branches principales.
@@ -646,7 +666,9 @@
           <t>D'autres photos</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fontaine à l'entrée.
